--- a/SpecflowTests/Data/Mars.xlsx
+++ b/SpecflowTests/Data/Mars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\Dump\onboarding.specflow\MarsQA-1\SpecflowTests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\MarsQA\onboarding.specflow\MarsQA-1\SpecflowTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD92D95-F987-464E-8FD9-2EE40C57ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B7BA3-A566-4403-858B-238B8E4DC25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,12 +59,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,9 +77,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -93,10 +86,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -313,7 +305,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1330,9 +1322,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E1CBD07B-9763-44DA-A7A9-1C12BE93269F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/SpecflowTests/Data/Mars.xlsx
+++ b/SpecflowTests/Data/Mars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\MarsQA\onboarding.specflow\MarsQA-1\SpecflowTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B7BA3-A566-4403-858B-238B8E4DC25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780A8E3-203B-464D-93BF-FB827B279BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5775" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>jrmateo_21@yahoo.com</t>
+    <t>jewhy27@gmail.com</t>
   </si>
   <si>
-    <t>Mylene_27</t>
+    <t>Windows_27</t>
   </si>
 </sst>
 </file>
